--- a/pitcher_matchups_2025-09-04.xlsx
+++ b/pitcher_matchups_2025-09-04.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>StartTime</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>last updated 09/04/2025 07:57 AM ET</t>
   </si>
   <si>
     <t>PHI
@@ -179,7 +182,7 @@
 @ HOU</t>
   </si>
   <si>
-    <t>Data for September 04, 2025</t>
+    <t>Batter Matchups 09/04/2025</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -202,14 +205,17 @@
 Edgar Quero (C)</t>
   </si>
   <si>
-    <t>Best Hitter/Pitcher Matchups for September 04, 2025</t>
+    <t>Best Hitter/Pitcher Matchups for 09/04/2025</t>
+  </si>
+  <si>
+    <t>as of 09/04/2025 07:57 AM ET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +225,29 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,7 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,8 +315,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -676,9 +713,9 @@
     <col min="4" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="26" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -707,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
@@ -733,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
@@ -759,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
@@ -785,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
@@ -811,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
@@ -837,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
@@ -1020,8 +1057,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1067,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1078,21 +1125,21 @@
   <cols>
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -1108,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1130,16 +1177,28 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:G3">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
